--- a/2 LCA/CG_import.xlsx
+++ b/2 LCA/CG_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 Master\2 Paper\2 Ammonia\2 Python\4 code\1 data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 Master\3 python\Ammonia\2 LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81EFDF2-A351-4EC0-9B3F-CED9BFE0261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5897A0B-067A-400A-8C0C-96CF6484C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="600" windowWidth="13230" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="109">
   <si>
     <t>cutoff</t>
   </si>
@@ -417,6 +417,10 @@
   </si>
   <si>
     <t>Emission Factors for Greenhouse Gas Inventories</t>
+  </si>
+  <si>
+    <t>Ren et.al., 2021, Journal of Cleaner Production；Wang, et al., 2019, Nitrogenous Fertilizer Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,7 +527,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -807,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89:I92"/>
+    <sheetView tabSelected="1" topLeftCell="F53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1416,29 +1419,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="1">
         <v>0.34100000000000003</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1566,7 +1569,7 @@
         <v>19</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -1593,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/2 LCA/CG_import.xlsx
+++ b/2 LCA/CG_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 Master\3 python\Ammonia\2 LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5897A0B-067A-400A-8C0C-96CF6484C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68E9D3B-F1AE-4424-A7CF-16EAF47EAFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="600" windowWidth="13230" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="110">
   <si>
     <t>cutoff</t>
   </si>
@@ -419,7 +419,11 @@
     <t>Emission Factors for Greenhouse Gas Inventories</t>
   </si>
   <si>
-    <t>Ren et.al., 2021, Journal of Cleaner Production；Wang, et al., 2019, Nitrogenous Fertilizer Technology</t>
+    <t>Ren et.al., 2021, Journal of Cleaner Production；Wang, et al., 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emission Factors for Greenhouse Gas Inventories</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58:I59"/>
+    <sheetView tabSelected="1" topLeftCell="F79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2152,7 +2156,7 @@
         <v>30</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
